--- a/output/3_Regression/h19_test/h21table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h21table_rmse.xlsx
@@ -472,7 +472,7 @@
         <v>1.242166894840046</v>
       </c>
       <c r="F4">
-        <v>1.325206953180709</v>
+        <v>1.325206953180708</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>1.10620361911514</v>
       </c>
       <c r="F5">
-        <v>1.22222014654477</v>
+        <v>1.222220146544769</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +532,7 @@
         <v>0.9735141824540235</v>
       </c>
       <c r="F7">
-        <v>1.127877432358513</v>
+        <v>1.127877432358512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -552,7 +552,7 @@
         <v>0.9321649208386464</v>
       </c>
       <c r="F8">
-        <v>1.095165186252709</v>
+        <v>1.095165186252708</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.9185563639251969</v>
       </c>
       <c r="F9">
-        <v>1.07274617394866</v>
+        <v>1.072746173948659</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -632,7 +632,7 @@
         <v>0.9086752301540852</v>
       </c>
       <c r="F12">
-        <v>1.034810986309773</v>
+        <v>1.034810986309772</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/output/3_Regression/h19_test/h21table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h21table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>1.993007607790322</v>
       </c>
       <c r="F2">
-        <v>1.970821257678496</v>
+        <v>1.970821257678495</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/output/3_Regression/h19_test/h21table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h21table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>1.993007607790322</v>
       </c>
       <c r="F2">
-        <v>1.970821257678495</v>
+        <v>1.970821257678497</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>1.473971476049355</v>
       </c>
       <c r="F3">
-        <v>1.529187136805451</v>
+        <v>1.529187136805452</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>1.242166894840046</v>
       </c>
       <c r="F4">
-        <v>1.325206953180708</v>
+        <v>1.325206953180709</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -652,7 +652,7 @@
         <v>0.9065319523960745</v>
       </c>
       <c r="F13">
-        <v>1.028080480023626</v>
+        <v>1.028080480023625</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h21table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h21table_rmse.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_6C9FC10ADA30921FD2FE31D2F8F2D3C214D99E50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92876DD-6116-40AE-A9AB-D10C36CBDB81}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -43,11 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,174 +90,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -338,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -578,67 +415,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.638417060562632E-2</v>
+        <v>0.03638417060562632</v>
       </c>
       <c r="C2">
-        <v>9.9288454241013255</v>
+        <v>9.928845424101326</v>
       </c>
       <c r="D2">
-        <v>2.0632604762867079</v>
+        <v>2.063260476286708</v>
       </c>
       <c r="E2">
         <v>1.993007607790322</v>
       </c>
       <c r="F2">
-        <v>1.9708212576784969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.970821257678496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0113849444645318E-2</v>
+        <v>0.06011384944464532</v>
       </c>
       <c r="C3">
         <v>5.759963339931244</v>
       </c>
       <c r="D3">
-        <v>1.4708541147661309</v>
+        <v>1.470854114766131</v>
       </c>
       <c r="E3">
         <v>1.473971476049355</v>
       </c>
       <c r="F3">
-        <v>1.5291871368054519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.529187136805451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.3598608260237267E-2</v>
+        <v>0.08359860826023727</v>
       </c>
       <c r="C4">
-        <v>3.9253082408178441</v>
+        <v>3.925308240817844</v>
       </c>
       <c r="D4">
-        <v>1.2366518180299131</v>
+        <v>1.236651818029913</v>
       </c>
       <c r="E4">
-        <v>1.2421668948400459</v>
+        <v>1.242166894840046</v>
       </c>
       <c r="F4">
-        <v>1.3252069531807089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.325206953180708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -649,16 +486,16 @@
         <v>2.934222628430931</v>
       </c>
       <c r="D5">
-        <v>1.1145411921646129</v>
+        <v>1.114541192164613</v>
       </c>
       <c r="E5">
-        <v>1.1062036191151401</v>
+        <v>1.10620361911514</v>
       </c>
       <c r="F5">
-        <v>1.2222201465447691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.222220146544769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -666,7 +503,7 @@
         <v>0.1241604750606807</v>
       </c>
       <c r="C6">
-        <v>2.3298506091889868</v>
+        <v>2.329850609188987</v>
       </c>
       <c r="D6">
         <v>1.032955456386403</v>
@@ -678,27 +515,27 @@
         <v>1.169250752818608</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.14089626502829419</v>
+        <v>0.1408962650282942</v>
       </c>
       <c r="C7">
-        <v>1.9201589060983191</v>
+        <v>1.920158906098319</v>
       </c>
       <c r="D7">
-        <v>0.96672365639269753</v>
+        <v>0.9667236563926975</v>
       </c>
       <c r="E7">
-        <v>0.97351418245402355</v>
+        <v>0.9735141824540235</v>
       </c>
       <c r="F7">
-        <v>1.1278774323585119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.127877432358512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -706,39 +543,39 @@
         <v>0.1562987212598663</v>
       </c>
       <c r="C8">
-        <v>1.6185538292345509</v>
+        <v>1.618553829234551</v>
       </c>
       <c r="D8">
-        <v>0.91584106074121563</v>
+        <v>0.9158410607412156</v>
       </c>
       <c r="E8">
-        <v>0.93216492083864644</v>
+        <v>0.9321649208386464</v>
       </c>
       <c r="F8">
-        <v>1.0951651862527081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.095165186252708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.17131649302795221</v>
+        <v>0.1713164930279522</v>
       </c>
       <c r="C9">
         <v>1.383892269671003</v>
       </c>
       <c r="D9">
-        <v>0.87965580243026786</v>
+        <v>0.8796558024302679</v>
       </c>
       <c r="E9">
-        <v>0.91855636392519691</v>
+        <v>0.9185563639251969</v>
       </c>
       <c r="F9">
         <v>1.072746173948659</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -749,36 +586,36 @@
         <v>1.196415519153432</v>
       </c>
       <c r="D10">
-        <v>0.84581533572293577</v>
+        <v>0.8458153357229358</v>
       </c>
       <c r="E10">
-        <v>0.91598869548825312</v>
+        <v>0.9159886954882531</v>
       </c>
       <c r="F10">
         <v>1.054929917513195</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.20341330008176259</v>
+        <v>0.2034133000817626</v>
       </c>
       <c r="C11">
-        <v>1.0498554796062729</v>
+        <v>1.049855479606273</v>
       </c>
       <c r="D11">
-        <v>0.81389913249062917</v>
+        <v>0.8138991324906292</v>
       </c>
       <c r="E11">
-        <v>0.91337242481746073</v>
+        <v>0.9133724248174607</v>
       </c>
       <c r="F11">
         <v>1.042352759577365</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -786,321 +623,39 @@
         <v>0.220564625764302</v>
       </c>
       <c r="C12">
-        <v>0.94276932057798024</v>
+        <v>0.9427693205779802</v>
       </c>
       <c r="D12">
-        <v>0.78351009475645561</v>
+        <v>0.7835100947564556</v>
       </c>
       <c r="E12">
-        <v>0.90867523015408525</v>
+        <v>0.9086752301540852</v>
       </c>
       <c r="F12">
-        <v>1.0348109863097721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.034810986309772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.23757994347588091</v>
+        <v>0.2375799434758809</v>
       </c>
       <c r="C13">
-        <v>0.87184193644963093</v>
+        <v>0.8718419364496309</v>
       </c>
       <c r="D13">
-        <v>0.75736327672130555</v>
+        <v>0.7573632767213055</v>
       </c>
       <c r="E13">
-        <v>0.90653195239607454</v>
+        <v>0.9065319523960745</v>
       </c>
       <c r="F13">
         <v>1.028080480023625</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>10</v>
-      </c>
-      <c r="L16" s="1">
-        <v>11</v>
-      </c>
-      <c r="M16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3.638417060562632E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6.0113849444645318E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.3598608260237267E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.1052093948500902</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.1241604750606807</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.14089626502829419</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.1562987212598663</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.17131649302795221</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.1868857693765697</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.20341330008176259</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.220564625764302</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.23757994347588091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9.9288454241013255</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.759963339931244</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.9253082408178441</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.934222628430931</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.3298506091889868</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.92015890609832</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.6185538292345509</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.383892269671003</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1.19641551915343</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.0498554796062729</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.94276932057798024</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.87184193644963093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.0632604762867102</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.4708541147661309</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.2366518180299131</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.11454119216461</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.032955456386403</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.96672365639269797</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.91584106074121563</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.87965580243026786</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.84581533572293577</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.81389913249062917</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.78351009475645561</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.75736327672130555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.993007607790322</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.473971476049355</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.2421668948400499</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.1062036191151401</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0404317261581599</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.97351418245402355</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.93216492083864644</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.91855636392519702</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.91598869548825312</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.91337242481746073</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.90867523015408525</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.90653195239607454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.9708212576785</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.5291871368054519</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.3252069531807089</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.22222014654477</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.16925075281861</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.1278774323585119</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.0951651862527101</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.0727461739486599</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1.0549299175131901</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1.0423527595773601</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1.0348109863097701</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.0280804800236201</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:B21">
-    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
-    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D21">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E21">
-    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F21">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G21">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H21">
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I21">
-    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J21">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K21">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M21">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L21">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>